--- a/Kostenschätzung COSIMA.xlsx
+++ b/Kostenschätzung COSIMA.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\GitHub\COSIMA-Laserstar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\COSIMA-Laserstar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C548208-7F42-4542-9556-271EDB187020}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
+    <sheet name="Reisekosten" sheetId="2" r:id="rId2"/>
+    <sheet name="Marketing" sheetId="3" r:id="rId3"/>
+    <sheet name="Material" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,18 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
-  <si>
-    <t>Kostenschätzung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anreise </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Unterkunft</t>
-  </si>
-  <si>
-    <t>elekt. Material</t>
   </si>
   <si>
     <t>T-Shirts</t>
@@ -59,23 +52,167 @@
     <t>Preis/Pers.</t>
   </si>
   <si>
-    <t>Variante Bahn</t>
+    <t>Summe</t>
   </si>
   <si>
-    <t>Variante Auto</t>
+    <t>Material</t>
   </si>
   <si>
-    <t>Summe</t>
+    <t>Reisekosten</t>
+  </si>
+  <si>
+    <t>Anreise mit der Bahn</t>
+  </si>
+  <si>
+    <t>alternativ: Anreise mit dem Auto</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Ausgabenposten</t>
+  </si>
+  <si>
+    <t>Elektrotechnik</t>
+  </si>
+  <si>
+    <t>Aufbau</t>
+  </si>
+  <si>
+    <t>Informationsblätter</t>
+  </si>
+  <si>
+    <t>Kostenplanung Reisekosten</t>
+  </si>
+  <si>
+    <t>Kostenplanung Marketing</t>
+  </si>
+  <si>
+    <t>Kostenplanung Material</t>
+  </si>
+  <si>
+    <t>Einkaufsliste Elektrotechnik</t>
+  </si>
+  <si>
+    <t>operationsverstärker</t>
+  </si>
+  <si>
+    <t>LM 358 DIP</t>
+  </si>
+  <si>
+    <t>photodiode</t>
+  </si>
+  <si>
+    <t>Everlight Elec PT333-3B</t>
+  </si>
+  <si>
+    <t>photo LED 940nm</t>
+  </si>
+  <si>
+    <t>Everlight Elec IR333C/H0/L10</t>
+  </si>
+  <si>
+    <t>Widerstände</t>
+  </si>
+  <si>
+    <t>100/120/330/10k</t>
+  </si>
+  <si>
+    <t>Kondensator</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>Rot/Gleb/Schwarz</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
+  </si>
+  <si>
+    <t>Platine</t>
+  </si>
+  <si>
+    <t>Loch/China</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>Thorlabs CPS980</t>
+  </si>
+  <si>
+    <t>IR Photodioden</t>
+  </si>
+  <si>
+    <t>https://www.thorlabs.com/thorproduct.cfm?partnumber=CPS980</t>
+  </si>
+  <si>
+    <t>Adafruit ADS1015 12-Bit ADC - 4 Channel with Programmable Gain Amplifier</t>
+  </si>
+  <si>
+    <t>https://eckstein-shop.de/Adafruit-ADS1015-12-Bit-ADC-4-Channel-with-Programmable-Gain-Amplifier</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>BestellNr</t>
+  </si>
+  <si>
+    <t>Stückpreis</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Buget GESTIKULASER</t>
+  </si>
+  <si>
+    <t>Photomatrix</t>
+  </si>
+  <si>
+    <t>3D Filament</t>
+  </si>
+  <si>
+    <t>Ferngesteuertes Auto</t>
+  </si>
+  <si>
+    <t>Linsen</t>
+  </si>
+  <si>
+    <t>Stückkosten</t>
+  </si>
+  <si>
+    <t>Laserpointer</t>
+  </si>
+  <si>
+    <t>Summe Material</t>
+  </si>
+  <si>
+    <t>IR Strahlquelle</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ [$€-407];\-#,##0\ [$€-407]"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,19 +228,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -117,8 +278,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -233,35 +418,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,7 +678,344 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15449548370486382"/>
+          <c:y val="7.8394366038536376E-2"/>
+          <c:w val="0.84261094066238995"/>
+          <c:h val="0.92160563396146367"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$5,Gesamt!$A$10,Gesamt!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Reisekosten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Material</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gesamt!$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2517937165211297"/>
+                      <c:h val="0.15895390742185814"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:pattFill prst="pct75">
+                    <a:fgClr>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:fgClr>
+                    <a:bgClr>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:bgClr>
+                  </a:pattFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$5,Gesamt!$A$10,Gesamt!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Reisekosten</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Material</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gesamt!$E$5,Gesamt!$E$10,Gesamt!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -292,6 +1029,1870 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Reisekoste</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$6,Gesamt!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Anreise mit der Bahn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unterkunft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gesamt!$E$6,Gesamt!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$6,Gesamt!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Anreise mit der Bahn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unterkunft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gesamt!$E$6,Gesamt!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$6,Gesamt!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Anreise mit der Bahn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unterkunft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gesamt!$E$6,Gesamt!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>400</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> €</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>600</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> €</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gesamt!$A$6,Gesamt!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Anreise mit der Bahn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Unterkunft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gesamt!$E$6,Gesamt!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Marketing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:explosion val="7"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14288254593175848"/>
+                  <c:y val="-0.12221128608923884"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12950131233595802"/>
+                  <c:y val="3.4259623797025289E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>30 €</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.463998250218723E-2"/>
+                  <c:y val="0.13339749198016915"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gesamt!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>T-Shirts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Website</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Informationsblätter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gesamt!$E$11:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0\ [$€-407];\-#,##0\ [$€-407]</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65875874890638675"/>
+          <c:y val="0.41747594050743658"/>
+          <c:w val="0.28292061318422151"/>
+          <c:h val="0.23437664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Material</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B334E208-554A-4670-A44E-2EB1FC615CBD}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[WERT]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14264851268591425"/>
+                  <c:y val="5.0032808398949285E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11422528433945751"/>
+                  <c:y val="7.2473388743073783E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1220253718285211E-2"/>
+                  <c:y val="0.10941090696996204"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C594E18E-8EB0-4CC8-A012-42B14EED6C29}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[WERT]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0117454068241464E-2"/>
+                  <c:y val="0.13542249927092442"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1B0491C-BBB2-43CF-B0B6-06EBAD343D03}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[WERT]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Material!$A$7,Material!$A$9,Material!$A$26:$A$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>IR Strahlquelle</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Elektronik</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3D Filament</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ferngesteuertes Auto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laserpointer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linsen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Material!$E$7,Material!$E$9,Material!$E$26:$E$29)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -317,24 +2918,14 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.50163593141629614"/>
-          <c:y val="0.10369969378827647"/>
-          <c:w val="0.40287467191601051"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
+      <c:layout/>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -399,52 +2990,89 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$15:$A$18</c:f>
+              <c:f>(Material!$A$7,Material!$A$9,Material!$A$26:$A$29)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Anreise </c:v>
+                  <c:v>IR Strahlquelle</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Unterkunft</c:v>
+                  <c:v>Elektronik</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>T-Shirts</c:v>
+                  <c:v>3D Filament</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>elekt. Material</c:v>
+                  <c:v>Ferngesteuertes Auto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laserpointer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Linsen</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$15:$E$18</c:f>
+              <c:f>(Material!$E$7,Material!$E$9,Material!$E$26:$E$29)</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* "-"??\ [$€-407]_-;_-@_-</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>93.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>720</c:v>
+                  <c:v>220.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D60-4ADE-B193-181A28BF02E2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -456,8 +3084,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="75"/>
-      </c:doughnutChart>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -468,6 +3095,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -493,19 +3121,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -530,7 +3151,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -542,6 +3163,163 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -582,6 +3360,3011 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1104,26 +6887,179 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>24221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84076C66-733A-452A-AB65-BBC45505374B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1437,235 +7373,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>6</v>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="54">
+        <f>SUM(E8,E6)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="59">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="55">
+        <f>B6*C6*D6</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="59">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="59">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" ref="E8:E11" si="0">B8*C8*D8</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="54">
+        <f>SUM(E11:E13)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <f>B5*C5*D5</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ref="E6:E8" si="0">B6*C6*D6</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="C11" s="59">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E11" s="55">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>700</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="55">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="4">
-        <f>SUM(E5:E8)</f>
-        <v>1656</v>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="55">
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="55"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="54">
+        <f>SUM(E16:E17)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="56">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="57"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6">
-        <v>100</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <f>B15*C15*D15</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>60</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E18" si="1">B16*C16*D16</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4">
-        <f>SUM(E15:E18)</f>
-        <v>1920</v>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="58">
+        <f>SUM(E6:E16)</f>
+        <v>2550</v>
       </c>
     </row>
   </sheetData>
@@ -1673,4 +7606,496 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" activeCellId="5" sqref="A7 A9 A26:A29 E7 E9 E26:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>93.65</v>
+      </c>
+      <c r="E7" s="62">
+        <f t="shared" ref="E7" si="0">C7*D7</f>
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="62">
+        <f>SUM(E10:E20)</f>
+        <v>220.79999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="24">
+        <v>40</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="E10" s="50">
+        <f t="shared" ref="E10:E20" si="1">C10*D10</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="24">
+        <v>40</v>
+      </c>
+      <c r="D11" s="25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="50">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="24">
+        <v>40</v>
+      </c>
+      <c r="D12" s="25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E12" s="50">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="26">
+        <v>100</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="51">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="26">
+        <v>100</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="51">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27">
+        <v>3</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="26">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27">
+        <v>3</v>
+      </c>
+      <c r="E16" s="51">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="26">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27">
+        <v>10</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="26">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="26">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="51">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="26">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27">
+        <v>11.84</v>
+      </c>
+      <c r="E20" s="51">
+        <f t="shared" si="1"/>
+        <v>71.039999999999992</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="52">
+        <f>SUM(E7,E9)</f>
+        <v>314.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="34">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <v>50</v>
+      </c>
+      <c r="E26" s="53">
+        <f>C26*D26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28">
+        <v>20</v>
+      </c>
+      <c r="E27" s="53">
+        <f t="shared" ref="E27:E29" si="2">C27*D27</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="34">
+        <v>4</v>
+      </c>
+      <c r="D28" s="28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="53">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="34">
+        <v>2</v>
+      </c>
+      <c r="D29" s="28">
+        <v>18</v>
+      </c>
+      <c r="E29" s="53">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="53"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="52">
+        <f>SUM(E26:E29)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="48"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="52">
+        <f>SUM(E31,E22)</f>
+        <v>452.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Kostenschätzung COSIMA.xlsx
+++ b/Kostenschätzung COSIMA.xlsx
@@ -590,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -614,7 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -659,6 +658,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2183,9 +2188,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2731,9 +2734,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7377,7 +7378,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7424,7 +7425,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <f>SUM(E8,E6)</f>
         <v>1000</v>
       </c>
@@ -7436,13 +7437,13 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="58">
         <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="54">
         <f>B6*C6*D6</f>
         <v>400</v>
       </c>
@@ -7454,13 +7455,13 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="54">
         <v>400</v>
       </c>
     </row>
@@ -7471,13 +7472,13 @@
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <v>50</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="54">
         <f t="shared" ref="E8:E11" si="0">B8*C8*D8</f>
         <v>600</v>
       </c>
@@ -7485,18 +7486,18 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <f>SUM(E11:E13)</f>
         <v>150</v>
       </c>
@@ -7508,13 +7509,13 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="54">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -7526,7 +7527,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <v>30</v>
       </c>
     </row>
@@ -7537,7 +7538,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>20</v>
       </c>
     </row>
@@ -7546,7 +7547,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="55"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -7555,7 +7556,7 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="54">
+      <c r="E15" s="53">
         <f>SUM(E16:E17)</f>
         <v>500</v>
       </c>
@@ -7567,7 +7568,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="20"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>350</v>
       </c>
     </row>
@@ -7578,7 +7579,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="55">
+      <c r="E17" s="54">
         <v>150</v>
       </c>
     </row>
@@ -7587,7 +7588,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="57"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -7596,7 +7597,7 @@
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="58">
+      <c r="E19" s="57">
         <f>SUM(E6:E16)</f>
         <v>2550</v>
       </c>
@@ -7653,191 +7654,192 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" activeCellId="5" sqref="A7 A9 A26:A29 E7 E9 E26:E29"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="63"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>93.65</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="61">
         <f t="shared" ref="E7" si="0">C7*D7</f>
         <v>93.65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="61"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="62">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="61">
         <f>SUM(E10:E20)</f>
         <v>220.79999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>40</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>0.24</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <f t="shared" ref="E10:E20" si="1">C10*D10</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>40</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>40</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>100</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>0.1</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>100</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>0.2</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="50">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -7846,139 +7848,139 @@
       <c r="C15" s="19">
         <v>3</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>3</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>3</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>3</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>10</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>30</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>1</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>30</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>0.9</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="50">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>6</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>11.84</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <f t="shared" si="1"/>
         <v>71.039999999999992</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="50"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="52">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="51">
         <f>SUM(E7,E9)</f>
         <v>314.45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="48"/>
+      <c r="E23" s="47"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="48"/>
+      <c r="E24" s="47"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19" t="s">
         <v>2</v>
@@ -7986,106 +7988,106 @@
       <c r="D25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="19"/>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>1</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <v>50</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="52">
         <f>C26*D26</f>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>1</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="27">
         <v>20</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:E29" si="2">C27*D27</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="19"/>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>4</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="27">
         <v>8</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="52">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="19"/>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>2</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>18</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="52">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="52"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="52">
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="51">
         <f>SUM(E26:E29)</f>
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="48"/>
+      <c r="E32" s="47"/>
     </row>
-    <row r="33" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="52">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="51">
         <f>SUM(E31,E22)</f>
         <v>452.45</v>
       </c>
@@ -8096,6 +8098,7 @@
     <hyperlink ref="F19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>